--- a/database/seeds/rkap_detail.xlsx
+++ b/database/seeds/rkap_detail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Google Drive (bagian.transport@gmail.com)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DF89F-A8B2-463D-B2BF-17AC295BFA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2136" windowWidth="17280" windowHeight="9072" xr2:uid="{4EB93212-1A7B-46FE-A7EC-B76944A86EE7}"/>
+    <workbookView xWindow="4260" yWindow="2130" windowWidth="17280" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="tb_rkap_detail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>kd_aktifitas_rkap</t>
   </si>
@@ -235,12 +234,78 @@
   </si>
   <si>
     <t>Sewa Kendaraan Pick Up</t>
+  </si>
+  <si>
+    <t>RD20201000001</t>
+  </si>
+  <si>
+    <t>RD20201000002</t>
+  </si>
+  <si>
+    <t>RD20201000003</t>
+  </si>
+  <si>
+    <t>RD20201000004</t>
+  </si>
+  <si>
+    <t>RD20201000005</t>
+  </si>
+  <si>
+    <t>RD20201000006</t>
+  </si>
+  <si>
+    <t>RD20201000007</t>
+  </si>
+  <si>
+    <t>RD20201000008</t>
+  </si>
+  <si>
+    <t>RD20201000009</t>
+  </si>
+  <si>
+    <t>RD20201000010</t>
+  </si>
+  <si>
+    <t>RD20201000011</t>
+  </si>
+  <si>
+    <t>RD20201000012</t>
+  </si>
+  <si>
+    <t>RD20201000013</t>
+  </si>
+  <si>
+    <t>RD20201000014</t>
+  </si>
+  <si>
+    <t>RD20201000015</t>
+  </si>
+  <si>
+    <t>RD20201000016</t>
+  </si>
+  <si>
+    <t>RD20201000017</t>
+  </si>
+  <si>
+    <t>RD20201000018</t>
+  </si>
+  <si>
+    <t>RD20201000019</t>
+  </si>
+  <si>
+    <t>RD20201000020</t>
+  </si>
+  <si>
+    <t>RD20201000021</t>
+  </si>
+  <si>
+    <t>RD20201000022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,25 +658,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E565A-4A58-4598-81BE-18294B7F4DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,10 +702,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1">"RD"&amp;TEXT(TODAY(),"yyyymm")&amp;TEXT(ROW(A2)-1,"00000")</f>
-        <v>RD20201000001</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -664,10 +728,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A23" ca="1" si="0">"RD"&amp;TEXT(TODAY(),"yyyymm")&amp;TEXT(ROW(A3)-1,"00000")</f>
-        <v>RD20201000002</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -691,10 +754,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000003</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -718,10 +780,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000004</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -745,10 +806,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000005</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -772,10 +832,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000006</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -799,10 +858,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000007</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -826,10 +884,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000008</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -853,10 +910,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000009</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -880,10 +936,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000010</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -907,10 +962,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000011</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -934,10 +988,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000012</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -961,10 +1014,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000013</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -988,10 +1040,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000014</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -1015,10 +1066,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000015</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1042,10 +1092,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000016</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -1069,10 +1118,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000017</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -1096,10 +1144,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000018</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1123,10 +1170,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000019</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -1150,10 +1196,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000020</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -1177,10 +1222,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000021</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1204,10 +1248,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>RD20201000022</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>

--- a/database/seeds/rkap_detail.xlsx
+++ b/database/seeds/rkap_detail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pengelolaan_aset\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C98068-4469-413A-8E97-4D9C0C941D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2130" windowWidth="17280" windowHeight="9075"/>
+    <workbookView xWindow="-960" yWindow="990" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_rkap_detail" sheetId="1" r:id="rId1"/>
@@ -305,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,25 +659,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -728,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -754,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -780,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -806,7 +807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -832,7 +833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -858,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -884,7 +885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -910,7 +911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -936,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -962,7 +963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -988,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>

--- a/database/seeds/rkap_detail.xlsx
+++ b/database/seeds/rkap_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C98068-4469-413A-8E97-4D9C0C941D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DAA65-FC26-42D7-A3CE-C73C24FD7025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-960" yWindow="990" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11750" yWindow="2870" windowWidth="6950" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_rkap_detail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>kd_aktifitas_rkap</t>
   </si>
@@ -301,6 +301,48 @@
   </si>
   <si>
     <t>RD20201000022</t>
+  </si>
+  <si>
+    <t>Sewa Kendaraan TA Har I</t>
+  </si>
+  <si>
+    <t>Sewa Kendaraan TA Har II</t>
+  </si>
+  <si>
+    <t>Sewa Kendaraan TA Har III</t>
+  </si>
+  <si>
+    <t>HAR01</t>
+  </si>
+  <si>
+    <t>HAR02</t>
+  </si>
+  <si>
+    <t>HAR03</t>
+  </si>
+  <si>
+    <t>RD20201000023</t>
+  </si>
+  <si>
+    <t>RD20201000024</t>
+  </si>
+  <si>
+    <t>RD20201000025</t>
+  </si>
+  <si>
+    <t>RD20201000026</t>
+  </si>
+  <si>
+    <t>R20201000012</t>
+  </si>
+  <si>
+    <t>R20201000009</t>
+  </si>
+  <si>
+    <t>R20201000011</t>
+  </si>
+  <si>
+    <t>R20201000010</t>
   </si>
 </sst>
 </file>
@@ -660,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,6 +1317,110 @@
         <v>31</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeds/rkap_detail.xlsx
+++ b/database/seeds/rkap_detail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>kd_aktifitas_rkap</t>
   </si>
@@ -83,18 +83,12 @@
     <t>Material Usage - Consumable Kendaraan</t>
   </si>
   <si>
-    <t>Suku Cadang</t>
-  </si>
-  <si>
     <t>BAG0001</t>
   </si>
   <si>
     <t>SIE0005</t>
   </si>
   <si>
-    <t>Bahan Pembantu</t>
-  </si>
-  <si>
     <t>Material Usage - General Use Pelumas</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>TFA39</t>
   </si>
   <si>
-    <t>Lainnya - Bahan Bakar Kendaraan</t>
-  </si>
-  <si>
     <t>Pertamax</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>TFA45</t>
   </si>
   <si>
-    <t>Pemeliharaan - Kendaraan</t>
-  </si>
-  <si>
     <t>Service &amp; Repair Bus</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>TFA50</t>
   </si>
   <si>
-    <t>Retribusi - Kendaraan</t>
-  </si>
-  <si>
     <t>Uji Keur</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>TFA49</t>
   </si>
   <si>
-    <t>Retribusi - Parkir &amp; Tol</t>
-  </si>
-  <si>
     <t>Parkir &amp; Tol</t>
   </si>
   <si>
@@ -213,9 +195,6 @@
   </si>
   <si>
     <t>TFA55</t>
-  </si>
-  <si>
-    <t>Sewa - Kendaraan</t>
   </si>
   <si>
     <t>Sewa Kendaraan Sedan</t>
@@ -661,15 +640,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -704,13 +683,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -719,24 +698,24 @@
         <v>35000000</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -745,24 +724,24 @@
         <v>30000000</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -771,24 +750,24 @@
         <v>50750000</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -797,24 +776,24 @@
         <v>95000000</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -823,455 +802,455 @@
         <v>90250000</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>51329267</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2210096690</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2454004630</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>505200000</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>15000000</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>15000000</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>460000000</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>112574718</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>274294680</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>14000000</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>5216020</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>216000000</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>1685817975</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>3364632733</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>2098384653</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>6115543624</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>8516190470</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
